--- a/Assets/Resources/Config/第三关.xlsx
+++ b/Assets/Resources/Config/第三关.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CGJ2025\everything-is-a-live\Assets\Resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1795B8F7-853F-490B-BF2F-19E975FCC2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838290BF-2733-4D65-8E9D-6FB3D9B83B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,7 +843,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">419 51 24575,'0'480'0,"1"-465"0,1 0 0,0 1 0,6 19 0,-4-17 0,5 34 0,3 61 0,-5-59 0,-1 56 0,-5-91 0,0 0 0,1 0 0,9 35 0,-7-35 0,2 36 0,-5-37 0,1 0 0,6 27 0,-2-19-273,-2-1 0,-1 1 0,-1-1 0,-1 33 0,-1-36-6553</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="328.63">218 1 24575,'1'64'0,"-3"72"0,-1-121 0,0 0 0,-1-1 0,-1 1 0,0-1 0,-1 0 0,0-1 0,-15 24 0,10-18 0,1 1 0,-12 31 0,17-40-6,0 0 0,0 0 0,-1 0 0,-1-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,-11 10 0,-15 17-1299,25-25-5521</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.94">369 25 24575,'24'0'0,"-6"-1"0,1 1 0,29 5 0,-42-4 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,6 5 0,86 66 0,-85-65 0,0 0 0,16 9 0,6 4 0,-2 0 0,-3-2 0,29 28 0,-49-41 0,0-1 0,19 11 0,14 11 0,-2 10 0,-31-28 0,2-1 0,-1 0 0,1 0 0,1-1 0,0-1 0,18 11 0,-15-12-7,-1 2 0,0 0-1,-1 0 1,0 1-1,0 1 1,11 12 0,11 9-1307,-23-22-5512</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.93">369 25 24575,'24'0'0,"-6"-1"0,1 1 0,29 5 0,-42-4 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,6 5 0,86 66 0,-85-65 0,0 0 0,16 9 0,6 4 0,-2 0 0,-3-2 0,29 28 0,-49-41 0,0-1 0,19 11 0,14 11 0,-2 10 0,-31-28 0,2-1 0,-1 0 0,1 0 0,1-1 0,0-1 0,18 11 0,-15-12-7,-1 2 0,0 0-1,-1 0 1,0 1-1,0 1 1,11 12 0,11 9-1307,-23-22-5512</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="56.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1390,6 +1390,9 @@
       </c>
       <c r="M7" s="11">
         <v>12</v>
+      </c>
+      <c r="N7">
+        <v>13</v>
       </c>
       <c r="O7" s="1"/>
     </row>

--- a/Assets/Resources/Config/第三关.xlsx
+++ b/Assets/Resources/Config/第三关.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CGJ2025\everything-is-a-live\Assets\Resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838290BF-2733-4D65-8E9D-6FB3D9B83B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB309F1-58B8-4735-B6C0-CE6137601752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5720" yWindow="2340" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,7 +843,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">419 51 24575,'0'480'0,"1"-465"0,1 0 0,0 1 0,6 19 0,-4-17 0,5 34 0,3 61 0,-5-59 0,-1 56 0,-5-91 0,0 0 0,1 0 0,9 35 0,-7-35 0,2 36 0,-5-37 0,1 0 0,6 27 0,-2-19-273,-2-1 0,-1 1 0,-1-1 0,-1 33 0,-1-36-6553</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="328.63">218 1 24575,'1'64'0,"-3"72"0,-1-121 0,0 0 0,-1-1 0,-1 1 0,0-1 0,-1 0 0,0-1 0,-15 24 0,10-18 0,1 1 0,-12 31 0,17-40-6,0 0 0,0 0 0,-1 0 0,-1-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,-11 10 0,-15 17-1299,25-25-5521</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.93">369 25 24575,'24'0'0,"-6"-1"0,1 1 0,29 5 0,-42-4 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,6 5 0,86 66 0,-85-65 0,0 0 0,16 9 0,6 4 0,-2 0 0,-3-2 0,29 28 0,-49-41 0,0-1 0,19 11 0,14 11 0,-2 10 0,-31-28 0,2-1 0,-1 0 0,1 0 0,1-1 0,0-1 0,18 11 0,-15-12-7,-1 2 0,0 0-1,-1 0 1,0 1-1,0 1 1,11 12 0,11 9-1307,-23-22-5512</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.92">369 25 24575,'24'0'0,"-6"-1"0,1 1 0,29 5 0,-42-4 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,6 5 0,86 66 0,-85-65 0,0 0 0,16 9 0,6 4 0,-2 0 0,-3-2 0,29 28 0,-49-41 0,0-1 0,19 11 0,14 11 0,-2 10 0,-31-28 0,2-1 0,-1 0 0,1 0 0,1-1 0,0-1 0,18 11 0,-15-12-7,-1 2 0,0 0-1,-1 0 1,0 1-1,0 1 1,11 12 0,11 9-1307,-23-22-5512</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="56.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1309,11 +1309,12 @@
     </row>
     <row r="2" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="2"/>
       <c r="F2" s="9">
         <v>15</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="8"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1324,6 +1325,12 @@
     </row>
     <row r="3" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Assets/Resources/Config/第三关.xlsx
+++ b/Assets/Resources/Config/第三关.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CGJ2025\everything-is-a-live\Assets\Resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB309F1-58B8-4735-B6C0-CE6137601752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C351CA2E-6344-4993-AA09-6033F128B263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="2340" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -157,6 +157,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -843,7 +844,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">419 51 24575,'0'480'0,"1"-465"0,1 0 0,0 1 0,6 19 0,-4-17 0,5 34 0,3 61 0,-5-59 0,-1 56 0,-5-91 0,0 0 0,1 0 0,9 35 0,-7-35 0,2 36 0,-5-37 0,1 0 0,6 27 0,-2-19-273,-2-1 0,-1 1 0,-1-1 0,-1 33 0,-1-36-6553</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="328.63">218 1 24575,'1'64'0,"-3"72"0,-1-121 0,0 0 0,-1-1 0,-1 1 0,0-1 0,-1 0 0,0-1 0,-15 24 0,10-18 0,1 1 0,-12 31 0,17-40-6,0 0 0,0 0 0,-1 0 0,-1-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,-11 10 0,-15 17-1299,25-25-5521</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.92">369 25 24575,'24'0'0,"-6"-1"0,1 1 0,29 5 0,-42-4 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,6 5 0,86 66 0,-85-65 0,0 0 0,16 9 0,6 4 0,-2 0 0,-3-2 0,29 28 0,-49-41 0,0-1 0,19 11 0,14 11 0,-2 10 0,-31-28 0,2-1 0,-1 0 0,1 0 0,1-1 0,0-1 0,18 11 0,-15-12-7,-1 2 0,0 0-1,-1 0 1,0 1-1,0 1 1,11 12 0,11 9-1307,-23-22-5512</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.91">369 25 24575,'24'0'0,"-6"-1"0,1 1 0,29 5 0,-42-4 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,6 5 0,86 66 0,-85-65 0,0 0 0,16 9 0,6 4 0,-2 0 0,-3-2 0,29 28 0,-49-41 0,0-1 0,19 11 0,14 11 0,-2 10 0,-31-28 0,2-1 0,-1 0 0,1 0 0,1-1 0,0-1 0,18 11 0,-15-12-7,-1 2 0,0 0-1,-1 0 1,0 1-1,0 1 1,11 12 0,11 9-1307,-23-22-5512</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1309,12 +1310,12 @@
     </row>
     <row r="2" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="D2" s="8"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="2"/>
       <c r="F2" s="9">
         <v>15</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="13"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1325,12 +1326,12 @@
     </row>
     <row r="3" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
